--- a/Kontext Sätze/spiegel_neutralforms_results.xlsx
+++ b/Kontext Sätze/spiegel_neutralforms_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>x</t>
   </si>
@@ -29,16 +29,112 @@
     <t>4</t>
   </si>
   <si>
-    <t>Dunkel- und Hellblau: Unsere Wahrnehmungslücken Der Landesvorsitzende der Hamburger CDU, Christoph Ploß, will nun offenbar Satzzeichen verbieten lassen.</t>
-  </si>
-  <si>
-    <t>Für ein Genderverbot: Der Hamburger CDU-Landesvorsitzende Christoph Ploß Dieser Artikel gehört zum Angebot von SPIEGEL+.</t>
-  </si>
-  <si>
-    <t>Greift den Vorschlag eures Hamburger Landesvorsitzenden auf!</t>
-  </si>
-  <si>
-    <t>»Die unterschiedlichen Reaktionen auf den Magistratsbeschluss haben uns gezeigt, dass der gewählte Weg nicht der richtige gewesen ist«, teilten die Fraktionsvorsitzenden Sönke Allers (SPD), Thorsten Raschen (CDU) und Hauke Hilz (FDP) in einer gemeinsamen Erklärung mit.</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Seitdem sind Lehrer Lehrende, Wähler Wählende und Teilnehmer Personen.</t>
+  </si>
+  <si>
+    <t>Der konservative Journalist Andreas Hallaschka sprach von einem "manieristischen Gender-Schluckauf ", die stellvertretende Vorsitzende der AfD-Fraktion im Berliner Abgeordnetenhaus, Kristin Brinker, verwendete den Hashtag "#Gendergaga".</t>
+  </si>
+  <si>
+    <t>Wie stark die Schnittstellenfunktion des Kampfs gegen Gender ist, zeigt sich überdies daran, dass auch der Thüringer AfD-Vorsitzende Björn Höcke, der seit dem März dieses Jahres vom Bundesamt für Verfassungsschutz als Rechtsextremist eingestuft worden ist, bei einem Pegida-Auftritt in Dresden im Mai 2018 verschwörungstheoretisch gegen die "schöne Neue Weltordnung" wetterte, weil diese "eine wirkliche Endzeitideologie mit der Auflösung der Staaten, der Völker, der Kulturen" und als "perverser Spitze" der "Geschlechter" sei.</t>
+  </si>
+  <si>
+    <t>Es werde im Gegenteil noch verstärkt, so Barbara Rohm, Vorsitzende von Pro Quote Film.</t>
+  </si>
+  <si>
+    <t>Ein weiterer Einwand: Gendergerechte Formen seien unlogisch, etwa wenn man »Studierende« statt »Studentinnen und Studenten« sagt.</t>
+  </si>
+  <si>
+    <t>»Wir schaffen das hier nur, weil unsere Kundschaft so zu uns hält«, sagte neulich eine Ladenbesitzerin durch den Türspalt hindurch.</t>
+  </si>
+  <si>
+    <t>Er hat rund 40 Mitglieder aus Deutschland, Österreich, der Schweiz, dem Fürstentum Liechtenstein, der Autonomen Provinz Bozen-Südtirol und der Deutschsprachigen Gemeinschaft Belgiens.</t>
+  </si>
+  <si>
+    <t>Im Oktober 2021 veröffentlichte sie zusammen mit Friedemann Karig den Bestseller »Erzählende Affen«.</t>
+  </si>
+  <si>
+    <t>Im Kampfpanzer »Leopard 2« soll die »Teamleitung (m/w/d) Panzertruppe« künftig den Ton angeben Die Bundeswehr bemüht sich in einer Stellenausschreibung um gendergerechtere Formulierungen: Als »Teamleitung (m/w/d) Panzertruppe« werden im Internet Bewerber gesucht, die im Kampfpanzer »Leopard 2« den Ton angeben wollen.</t>
+  </si>
+  <si>
+    <t>»Übersetzung »Teamleitung« in »Heeresdeutsch«: Panzerkommandant/ Panzerkommandantin«, schrieb Generalleutnant Alfons Mais, Inspekteur des Heeres, auf Twitter.</t>
+  </si>
+  <si>
+    <t>Stattdessen empfiehlt das Ministerium die Verwendung von Paarformen wie »Schülerinnen und Schüler« oder geschlechtsneutrale Formulierungen wie etwa Lehrkräfte.</t>
+  </si>
+  <si>
+    <t>Die VHS nutzen laut Sprecherin Beatrice Winkler in der Regel die weibliche und die männliche Form zusammen – also Schülerinnen und Schüler – oder Partizipkonstruktionen wie Studierende.</t>
+  </si>
+  <si>
+    <t>Sie vertritt nach eigenen Angaben etwa 80.000 Mitglieder im Alter von etwa 9 bis 25 Jahren.</t>
+  </si>
+  <si>
+    <t>Der scheidende AfD-Vorsitzende Jörg Meuthen nutzte Ottos Reaktion am Mittwoch für parteipolitische Ziele und feuerte mit einem Post die Debatte zusätzlich an.</t>
+  </si>
+  <si>
+    <t>Die früher Stewardessen genannten Flugbegleiterinnen – lange fast ausschließlich Frauen – wurden von den Fluggesellschaften jahrzehntelang zum Sexobjekt stilisiert, das die Kundschaft zum Fliegen animieren sollte.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter hatte zur gütlichen Einigung vorgeschlagen, den Mann künftig in herkömmlicher Sprache anzuschreiben, als eine Art Einzelfall-Lösung.</t>
+  </si>
+  <si>
+    <t>Wir haben uns nach einigem Hin und Her dafür entschieden, das generische Maskulinum (»Forscher«) falls möglich durch Doppelnennungen (»Forscherinnen und Forscher«), geschlechtsneutrale Begriffe (»Forschende«) oder auch »kluge Umschreibungen« zu ersetzen.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter Christoph Hellerbrand betonte, dass der VW-Mitarbeiter nicht zur aktiven Nutzung des Leitfadens verpflichtet sei, weil dieser sich nur an Audi-Angestellte richte.</t>
+  </si>
+  <si>
+    <t>Dazu dienten neutrale Formulierungen (»Führungskraft« statt »Chef«) oder der sogenannte Gendergap, der männliche und weibliche Formen mit einem Unterstrich verbindet.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter Christoph Hellerbrand hatte betont, dass der VW-Mitarbeiter nicht dazu verpflichtet sei, den Leitfaden aktiv zu nutzen, weil dieser sich nur an Audi-Angestellte richte.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +196,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -108,7 +204,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -116,7 +212,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -124,7 +220,135 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
